--- a/Data/Config/Config.xlsx
+++ b/Data/Config/Config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Key</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Soft Skill Assessment Score Sheet</t>
   </si>
   <si>
-    <t>AssessmentCriteriaFilePath</t>
-  </si>
-  <si>
     <t>Data\Config\Assessment Criteria.xlsx</t>
   </si>
   <si>
@@ -56,14 +53,29 @@
     <t>Data\Config\sampleFormat.txt</t>
   </si>
   <si>
-    <t>EmailFormatFilePath</t>
+    <t>emailFormatFilePath</t>
+  </si>
+  <si>
+    <t>assessmentCriteriaFilePath</t>
+  </si>
+  <si>
+    <t>inputFolderPath</t>
+  </si>
+  <si>
+    <t>Data\Processing</t>
+  </si>
+  <si>
+    <t>processedFolderPath</t>
+  </si>
+  <si>
+    <t>Data\Processed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +87,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,14 +117,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,6 +430,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -418,26 +442,42 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config/Config.xlsx
+++ b/Data/Config/Config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Key</t>
   </si>
@@ -38,9 +38,6 @@
     <t>emailSubject</t>
   </si>
   <si>
-    <t>Soft Skill Assessment Score Sheet</t>
-  </si>
-  <si>
     <t>Data\Config\Assessment Criteria.xlsx</t>
   </si>
   <si>
@@ -69,6 +66,12 @@
   </si>
   <si>
     <t>Data\Processed</t>
+  </si>
+  <si>
+    <t>trainings@infobeans.com</t>
+  </si>
+  <si>
+    <t>SoftSkill Assessment Scores Q2 - Slot 1 to 3</t>
   </si>
 </sst>
 </file>
@@ -92,12 +95,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,17 +118,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,7 +408,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,54 +429,56 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
